--- a/src/test/resources/Data.xlsx.xlsx
+++ b/src/test/resources/Data.xlsx.xlsx
@@ -148,14 +148,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -438,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,64 +451,65 @@
     <col min="2" max="2" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="24" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:3" ht="24" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="36" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:3" ht="36" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="24" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" ht="24" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="24" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:3" ht="24" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="24" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:3" ht="24" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
